--- a/FraCollabTable.xlsx
+++ b/FraCollabTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F3BCDD-4F67-440B-BE1D-6DC1F26A6D35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8FB4F1-C4F5-4BDD-B42D-FF6F5EA46DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82ACC25A-851F-46F0-96F2-BA051DDF4287}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="205">
   <si>
     <t>Receipts</t>
   </si>
@@ -309,16 +309,379 @@
   </si>
   <si>
     <t>840g</t>
+  </si>
+  <si>
+    <t>Wasser-Melone</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Weißkohl</t>
+  </si>
+  <si>
+    <t>ASC Regenb. Forelle</t>
+  </si>
+  <si>
+    <t>TomateStrau.</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2,824 kg</t>
+  </si>
+  <si>
+    <t>2,530 kg</t>
+  </si>
+  <si>
+    <t>0,536 kg</t>
+  </si>
+  <si>
+    <t>0,632 kg</t>
+  </si>
+  <si>
+    <t>Bananen</t>
+  </si>
+  <si>
+    <t>0,878 kg</t>
+  </si>
+  <si>
+    <t>Apfel rot</t>
+  </si>
+  <si>
+    <t>Bio Mini Möhren</t>
+  </si>
+  <si>
+    <t>200 g</t>
+  </si>
+  <si>
+    <t>Bio Rote Beete</t>
+  </si>
+  <si>
+    <t>500g</t>
+  </si>
+  <si>
+    <t>Paprika Mix</t>
+  </si>
+  <si>
+    <t>Bio Gemüsepfanne As.</t>
+  </si>
+  <si>
+    <t>Brokkoli-Buchweizen</t>
+  </si>
+  <si>
+    <t>Riesengarnelen Natur</t>
+  </si>
+  <si>
+    <t>Protein Eis Chocolat</t>
+  </si>
+  <si>
+    <t>Bio Dill 50g Bergader Alm. Mild</t>
+  </si>
+  <si>
+    <t>Bergader Alm. Mild</t>
+  </si>
+  <si>
+    <t>Müller Milchr. Apfel</t>
+  </si>
+  <si>
+    <t>Frischmilch 1,5% OGT</t>
+  </si>
+  <si>
+    <t>Vollmilch 3,5% OGT</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0,44</t>
+  </si>
+  <si>
+    <t>Griech. Joghurt 10%</t>
+  </si>
+  <si>
+    <t>Veganer Kokosjoghurt</t>
+  </si>
+  <si>
+    <t>Bürger Maultaschen</t>
+  </si>
+  <si>
+    <t>Tilsiter Scheiben</t>
+  </si>
+  <si>
+    <t>Dovgan Fam.2,5% Fett</t>
+  </si>
+  <si>
+    <t>Dressing Honig-Senf</t>
+  </si>
+  <si>
+    <t>Rote Grütze</t>
+  </si>
+  <si>
+    <t>Zott Jogh. Bratapfel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frischkäse Sahnige </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quarkriegel classic </t>
+  </si>
+  <si>
+    <t>Kölln Müsli Früchte</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>Haferdrink 3,5</t>
+  </si>
+  <si>
+    <t>1.89</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>1,90</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dallmayr Crema d'Oro </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knoblauch granuliert </t>
+  </si>
+  <si>
+    <t>Salbei-Eukalyptustee</t>
+  </si>
+  <si>
+    <t>Pfefferminztee UTZ</t>
+  </si>
+  <si>
+    <t>Fr.Eier.a.Bo.h.10er</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bio Geh. Tom. Knobl. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Bull Sugarfree </t>
+  </si>
+  <si>
+    <t>Pfand 0,25 M</t>
+  </si>
+  <si>
+    <t>Körnerglück</t>
+  </si>
+  <si>
+    <t>Biol. Körn.Krust</t>
+  </si>
+  <si>
+    <t>Quarktasche</t>
+  </si>
+  <si>
+    <t>Sonnencrusti</t>
+  </si>
+  <si>
+    <t>Hähncheninnenfilets</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>0,30</t>
+  </si>
+  <si>
+    <t>0,40</t>
+  </si>
+  <si>
+    <t>4388844104396</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>4g</t>
+  </si>
+  <si>
+    <t>8g</t>
+  </si>
+  <si>
+    <t>6g</t>
+  </si>
+  <si>
+    <t>2g</t>
+  </si>
+  <si>
+    <t>2915482016846</t>
+  </si>
+  <si>
+    <t>633</t>
+  </si>
+  <si>
+    <t>32.9g</t>
+  </si>
+  <si>
+    <t>2.5g</t>
+  </si>
+  <si>
+    <t>152g</t>
+  </si>
+  <si>
+    <t>81g</t>
+  </si>
+  <si>
+    <t>63,2g</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -359,11 +722,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,10 +1043,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24064EDC-3137-4101-96A5-0161266E1C0F}">
-  <dimension ref="B2:P36"/>
+  <dimension ref="B2:P78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,7 +1054,7 @@
     <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="62.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
@@ -735,17 +1100,20 @@
         <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -764,18 +1132,21 @@
       <c r="E4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="3">
-        <v>7</v>
+      <c r="F4" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="G4" s="3">
         <v>7</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="3">
+        <v>7</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -794,741 +1165,2095 @@
       <c r="E5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="3">
-        <v>2</v>
+      <c r="F5" s="3" t="s">
+        <v>121</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="H5" s="3">
+        <v>2</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="3">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5.12</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="B9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.89</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.29</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="C11" s="3">
+        <v>7787</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>12</v>
+        <v>128</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>15</v>
+        <v>121</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2.79</v>
+      </c>
+      <c r="H11" s="4">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="C12" s="3">
+        <v>7787</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>54</v>
+        <v>129</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>58</v>
+        <v>130</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.79</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>59</v>
+        <v>170</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7787</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="3"/>
+        <v>132</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1.39</v>
+      </c>
       <c r="I13" s="3" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="B15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="H15" s="3">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3.59</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3.59</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>14</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="3">
+        <v>7787</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.79</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="C19" s="3">
+        <v>7787</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="C20" s="3">
+        <v>7787</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="H20" s="4">
+        <v>1.45</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7787</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.89</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0.49</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C22" s="3">
+        <v>7787</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+        <v>141</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G23" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1.98</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="H24" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>47</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7787</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>22</v>
+        <v>147</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>26</v>
+        <v>121</v>
+      </c>
+      <c r="G25" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0.99</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N25" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>72</v>
+      <c r="C26" s="3">
+        <v>7787</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G26" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2.99</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="H28" s="3">
+        <v>5.97</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B29" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="N26" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="E29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B30" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="H31" s="3">
+        <v>0.89</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J31" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="C32" s="3">
+        <v>7787</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>37</v>
+        <v>154</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>41</v>
+        <v>121</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1.39</v>
+      </c>
+      <c r="H32" s="3">
+        <v>1.39</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>42</v>
+        <v>170</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>83</v>
+      <c r="C33" s="3">
+        <v>7787</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>85</v>
+        <v>155</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>88</v>
+        <v>143</v>
+      </c>
+      <c r="G33" s="3">
+        <v>0.69</v>
+      </c>
+      <c r="H33" s="3">
+        <v>1.38</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="B34" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="4">
+        <v>3.79</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="2"/>
+      <c r="B35" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="H35" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="2"/>
+      <c r="B36" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G36" s="3">
+        <v>15.99</v>
+      </c>
+      <c r="H36" s="3">
+        <v>15.99</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
     </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G38" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="H38" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="H39" s="3">
+        <v>0.79</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1.99</v>
+      </c>
+      <c r="H40" s="3">
+        <v>3.98</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0.75</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1.19</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J44" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0.59</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J46" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C48" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H48" s="3">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B49" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="3">
+        <v>7787</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B54" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I54" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J54" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J56" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="I57" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J57" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B61" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B62" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O67" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="P67" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3"/>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+      <c r="K69" s="3"/>
+      <c r="L69" s="3"/>
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="G70" s="3"/>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+      <c r="K70" s="3"/>
+      <c r="L70" s="3"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/FraCollabTable.xlsx
+++ b/FraCollabTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\Proj2\Fra_collab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8FB4F1-C4F5-4BDD-B42D-FF6F5EA46DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84163F22-B19F-49EC-A590-8E056CED44BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82ACC25A-851F-46F0-96F2-BA051DDF4287}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="204">
   <si>
     <t>Receipts</t>
   </si>
@@ -600,9 +600,6 @@
   </si>
   <si>
     <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
   </si>
   <si>
     <t>0,30</t>
@@ -722,13 +719,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24064EDC-3137-4101-96A5-0161266E1C0F}">
-  <dimension ref="B2:P78"/>
+  <dimension ref="B2:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J99" sqref="J99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1193,7 +1191,7 @@
         <v>7787</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>91</v>
@@ -1226,7 +1224,7 @@
         <v>7787</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>117</v>
@@ -1361,7 +1359,7 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>51</v>
@@ -1651,7 +1649,7 @@
         <v>0.49</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>51</v>
@@ -2497,21 +2495,16 @@
       <c r="O48" s="2"/>
     </row>
     <row r="49" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B49" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="3">
-        <v>7787</v>
-      </c>
-      <c r="D49" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -2534,7 +2527,9 @@
       <c r="O50" s="2"/>
     </row>
     <row r="51" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
+      <c r="B51" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2550,707 +2545,2233 @@
       <c r="O51" s="2"/>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="B52" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B53" s="3" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="I53" s="3" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="L53" s="3" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
       <c r="M53" s="3" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B54" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>58</v>
+        <v>193</v>
       </c>
       <c r="I54" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="L54" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B55" s="3" t="s">
-        <v>48</v>
+        <v>190</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>52</v>
+        <v>91</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>52</v>
+        <v>191</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>55</v>
+        <v>192</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="H55" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K55" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J55" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K55" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="L55" s="3" t="s">
-        <v>64</v>
+        <v>195</v>
       </c>
       <c r="M55" s="3" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>73</v>
       </c>
       <c r="E56" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>193</v>
-      </c>
       <c r="G56" s="3" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>65</v>
+        <v>199</v>
       </c>
       <c r="I56" s="3" t="s">
         <v>63</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="L56" s="3" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
-        <v>198</v>
+        <v>92</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>199</v>
+        <v>72</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>200</v>
+        <v>58</v>
       </c>
       <c r="I57" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>202</v>
+        <v>61</v>
       </c>
       <c r="L57" s="3" t="s">
-        <v>203</v>
+        <v>62</v>
       </c>
       <c r="M57" s="3" t="s">
-        <v>204</v>
+        <v>63</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
+      <c r="B58" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B59" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+      <c r="B59" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G59" s="3">
+        <v>134</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B60" s="3" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>19</v>
+        <v>128</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G60" s="3">
+        <v>42</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B61" s="3" t="s">
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>129</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G61" s="3">
+        <v>345</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B62" s="3" t="s">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B63" s="3" t="s">
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>69</v>
+        <v>133</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B64" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J64" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B65" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J65" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B66" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B68" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B69" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B70" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E70" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B71" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E71" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B72" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B73" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E73" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J73" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J74" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B75" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D75" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E75" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J75" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B76" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E76" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J76" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M76" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B77" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E77" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J77" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B78" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J78" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E79" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E80" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J80" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M80" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J81" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J82" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D83" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E83" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J84" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D85" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J85" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D86" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E86" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J86" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E87" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J87" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J88" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D90" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E90" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J90" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D91" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E93" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J93" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E95" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J95" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J96" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M96" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E97" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J97" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B101" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B102" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+    </row>
+    <row r="103" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B103" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B104" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B105" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C105" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D105" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B106" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E64" s="3" t="s">
+      <c r="E106" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B66" s="2" t="s">
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B108" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2" t="s">
+      <c r="C108" s="2"/>
+      <c r="D108" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B67" s="3" t="s">
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B109" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C109" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E67" s="3" t="s">
+      <c r="E109" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F109" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H109" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I109" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J109" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K109" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="L109" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="M67" s="3" t="s">
+      <c r="M109" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="N67" s="3" t="s">
+      <c r="N109" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="O67" s="3" t="s">
+      <c r="O109" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="P67" s="1" t="s">
+      <c r="P109" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B68" s="3" t="s">
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B110" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D110" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E68" s="3" t="s">
+      <c r="E110" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H110" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I110" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J110" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K110" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="L110" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="M110" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="N68" s="3" t="s">
+      <c r="N110" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="O68" s="3" t="s">
+      <c r="O110" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="P68" s="3" t="s">
+      <c r="P110" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3"/>
-      <c r="I69" s="3"/>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="3"/>
-      <c r="P69" s="1"/>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3"/>
-      <c r="I70" s="3"/>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="3"/>
-      <c r="P70" s="1"/>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3"/>
-      <c r="I71" s="3"/>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="3"/>
-      <c r="O71" s="3"/>
-      <c r="P71" s="1"/>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B73" s="2" t="s">
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+      <c r="E111" s="3"/>
+      <c r="F111" s="3"/>
+      <c r="G111" s="3"/>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="1"/>
+    </row>
+    <row r="112" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="3"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="O112" s="3"/>
+      <c r="P112" s="1"/>
+    </row>
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+      <c r="E113" s="3"/>
+      <c r="F113" s="3"/>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
+      <c r="K113" s="3"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3"/>
+      <c r="N113" s="3"/>
+      <c r="O113" s="3"/>
+      <c r="P113" s="1"/>
+    </row>
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="2"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" s="2"/>
+    </row>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B115" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B74" s="3" t="s">
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B116" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C116" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="E116" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F116" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H116" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I116" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J116" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B75" s="3" t="s">
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+    </row>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B117" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C117" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F117" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G117" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H117" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I117" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J117" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-    </row>
-    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+      <c r="E118" s="3"/>
+      <c r="F118" s="3"/>
+      <c r="G118" s="3"/>
+      <c r="H118" s="3"/>
+      <c r="I118" s="3"/>
+      <c r="J118" s="3"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+    </row>
+    <row r="119" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+      <c r="E119" s="3"/>
+      <c r="F119" s="3"/>
+      <c r="G119" s="3"/>
+      <c r="H119" s="3"/>
+      <c r="I119" s="3"/>
+      <c r="J119" s="3"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+      <c r="E120" s="3"/>
+      <c r="F120" s="3"/>
+      <c r="G120" s="3"/>
+      <c r="H120" s="3"/>
+      <c r="I120" s="3"/>
+      <c r="J120" s="3"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/FraCollabTable.xlsx
+++ b/FraCollabTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Amit\Desktop\Proj2\Fra_collab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84163F22-B19F-49EC-A590-8E056CED44BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18743468-6222-4410-B347-819AE195EA61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{82ACC25A-851F-46F0-96F2-BA051DDF4287}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="946" uniqueCount="216">
   <si>
     <t>Receipts</t>
   </si>
@@ -648,6 +648,42 @@
   </si>
   <si>
     <t>63,2g</t>
+  </si>
+  <si>
+    <t>CarbonFootprint</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>6.4</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>3.3</t>
   </si>
 </sst>
 </file>
@@ -719,14 +755,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24064EDC-3137-4101-96A5-0161266E1C0F}">
   <dimension ref="B2:P120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J99" sqref="J99"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N96" sqref="N96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,7 +1096,7 @@
     <col min="11" max="11" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2581,7 +2616,9 @@
       <c r="M52" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N52" s="2"/>
+      <c r="N52" s="3" t="s">
+        <v>204</v>
+      </c>
       <c r="O52" s="2"/>
     </row>
     <row r="53" spans="2:15" x14ac:dyDescent="0.25">
@@ -2621,7 +2658,9 @@
       <c r="M53" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N53" s="2"/>
+      <c r="N53" s="3" t="s">
+        <v>209</v>
+      </c>
       <c r="O53" s="2"/>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
@@ -2661,7 +2700,9 @@
       <c r="M54" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="N54" s="2"/>
+      <c r="N54" s="3" t="s">
+        <v>206</v>
+      </c>
       <c r="O54" s="2"/>
     </row>
     <row r="55" spans="2:15" x14ac:dyDescent="0.25">
@@ -2701,7 +2742,9 @@
       <c r="M55" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="N55" s="2"/>
+      <c r="N55" s="3" t="s">
+        <v>207</v>
+      </c>
       <c r="O55" s="2"/>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
@@ -2741,7 +2784,9 @@
       <c r="M56" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="N56" s="2"/>
+      <c r="N56" s="3" t="s">
+        <v>208</v>
+      </c>
       <c r="O56" s="2"/>
     </row>
     <row r="57" spans="2:15" x14ac:dyDescent="0.25">
@@ -2781,7 +2826,9 @@
       <c r="M57" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="N57" s="2"/>
+      <c r="N57" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="O57" s="2"/>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
@@ -2791,13 +2838,13 @@
       <c r="C58" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D58" s="6" t="s">
+      <c r="D58" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="6" t="s">
+      <c r="E58" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G58" s="3">
@@ -2820,6 +2867,9 @@
       </c>
       <c r="M58" s="3" t="s">
         <v>65</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="59" spans="2:15" x14ac:dyDescent="0.25">
@@ -2829,10 +2879,10 @@
       <c r="C59" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D59" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E59" s="6" t="s">
+      <c r="E59" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F59" s="3" t="s">
@@ -2858,6 +2908,9 @@
       </c>
       <c r="M59" s="3" t="s">
         <v>196</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
@@ -2867,13 +2920,13 @@
       <c r="C60" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D60" s="6" t="s">
+      <c r="D60" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G60" s="3">
@@ -2896,6 +2949,9 @@
       </c>
       <c r="M60" s="3" t="s">
         <v>203</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="2:15" x14ac:dyDescent="0.25">
@@ -2905,10 +2961,10 @@
       <c r="C61" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="D61" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E61" s="6" t="s">
+      <c r="E61" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F61" s="3" t="s">
@@ -2934,6 +2990,9 @@
       </c>
       <c r="M61" s="3" t="s">
         <v>63</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
@@ -2943,13 +3002,13 @@
       <c r="C62" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D62" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E62" s="6" t="s">
+      <c r="E62" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G62" s="3" t="s">
@@ -2972,6 +3031,9 @@
       </c>
       <c r="M62" s="3" t="s">
         <v>65</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="63" spans="2:15" x14ac:dyDescent="0.25">
@@ -2981,7 +3043,7 @@
       <c r="C63" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="D63" s="6" t="s">
+      <c r="D63" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E63" s="3" t="s">
@@ -3010,6 +3072,9 @@
       </c>
       <c r="M63" s="3" t="s">
         <v>196</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
@@ -3019,13 +3084,13 @@
       <c r="C64" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D64" s="6" t="s">
+      <c r="D64" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E64" s="6" t="s">
+      <c r="E64" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G64" s="3" t="s">
@@ -3049,18 +3114,21 @@
       <c r="M64" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="3" t="s">
         <v>100</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D65" s="6" t="s">
+      <c r="D65" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E65" s="6" t="s">
+      <c r="E65" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F65" s="3" t="s">
@@ -3087,21 +3155,24 @@
       <c r="M65" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="3" t="s">
         <v>101</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="6" t="s">
+      <c r="D66" s="3" t="s">
         <v>52</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G66" s="3" t="s">
@@ -3125,18 +3196,21 @@
       <c r="M66" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="3" t="s">
         <v>102</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D67" s="6" t="s">
+      <c r="D67" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E67" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F67" s="3" t="s">
@@ -3163,21 +3237,24 @@
       <c r="M67" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="3" t="s">
         <v>103</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D68" s="6" t="s">
+      <c r="D68" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E68" s="6" t="s">
+      <c r="E68" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G68" s="3" t="s">
@@ -3201,8 +3278,11 @@
       <c r="M68" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="3" t="s">
         <v>104</v>
       </c>
@@ -3239,21 +3319,24 @@
       <c r="M69" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="3" t="s">
         <v>105</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G70" s="3" t="s">
@@ -3277,18 +3360,21 @@
       <c r="M70" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="3" t="s">
         <v>106</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="D71" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F71" s="3" t="s">
@@ -3315,21 +3401,24 @@
       <c r="M71" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="3" t="s">
         <v>107</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="D72" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G72" s="3" t="s">
@@ -3353,18 +3442,21 @@
       <c r="M72" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="D73" s="6" t="s">
+      <c r="D73" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E73" s="6" t="s">
+      <c r="E73" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F73" s="3" t="s">
@@ -3391,21 +3483,24 @@
       <c r="M73" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="D74" s="6" t="s">
+      <c r="D74" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E74" s="6" t="s">
+      <c r="E74" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G74" s="3" t="s">
@@ -3429,18 +3524,21 @@
       <c r="M74" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D75" s="6" t="s">
+      <c r="D75" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F75" s="3" t="s">
@@ -3467,21 +3565,24 @@
       <c r="M75" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="3" t="s">
         <v>111</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G76" s="3" t="s">
@@ -3505,18 +3606,21 @@
       <c r="M76" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="3" t="s">
         <v>112</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="3" t="s">
         <v>73</v>
       </c>
       <c r="F77" s="3" t="s">
@@ -3543,21 +3647,24 @@
       <c r="M77" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="3" t="s">
         <v>76</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D78" s="6" t="s">
+      <c r="D78" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G78" s="3" t="s">
@@ -3581,18 +3688,21 @@
       <c r="M78" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="3" t="s">
         <v>113</v>
       </c>
       <c r="C79" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D79" s="6" t="s">
+      <c r="D79" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E79" s="6" t="s">
+      <c r="E79" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F79" s="3" t="s">
@@ -3619,21 +3729,24 @@
       <c r="M79" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G80" s="3" t="s">
@@ -3657,8 +3770,11 @@
       <c r="M80" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="3" t="s">
         <v>115</v>
       </c>
@@ -3695,21 +3811,24 @@
       <c r="M81" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="3" t="s">
         <v>116</v>
       </c>
       <c r="C82" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="D82" s="6" t="s">
+      <c r="D82" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G82" s="3" t="s">
@@ -3733,18 +3852,21 @@
       <c r="M82" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C83" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="D83" s="6" t="s">
+      <c r="D83" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F83" s="3" t="s">
@@ -3771,21 +3893,24 @@
       <c r="M83" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C84" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="D84" s="6" t="s">
+      <c r="D84" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G84" s="3" t="s">
@@ -3809,15 +3934,18 @@
       <c r="M84" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D85" s="6" t="s">
+      <c r="D85" s="3" t="s">
         <v>191</v>
       </c>
       <c r="E85" s="3" t="s">
@@ -3847,21 +3975,24 @@
       <c r="M85" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C86" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D86" s="6" t="s">
+      <c r="D86" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E86" s="6" t="s">
+      <c r="E86" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F86" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G86" s="3" t="s">
@@ -3885,18 +4016,21 @@
       <c r="M86" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C87" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="D87" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F87" s="3" t="s">
@@ -3923,21 +4057,24 @@
       <c r="M87" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="D88" s="6" t="s">
+      <c r="D88" s="3" t="s">
         <v>53</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G88" s="3" t="s">
@@ -3961,18 +4098,21 @@
       <c r="M88" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C89" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E89" s="6" t="s">
+      <c r="E89" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F89" s="3" t="s">
@@ -3999,21 +4139,24 @@
       <c r="M89" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="D90" s="6" t="s">
+      <c r="D90" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E90" s="6" t="s">
+      <c r="E90" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G90" s="3" t="s">
@@ -4037,15 +4180,18 @@
       <c r="M90" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C91" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D91" s="6" t="s">
+      <c r="D91" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E91" s="3" t="s">
@@ -4075,18 +4221,21 @@
       <c r="M91" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C92" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="D92" s="6" t="s">
+      <c r="D92" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="3" t="s">
         <v>53</v>
       </c>
       <c r="F92" s="3" t="s">
@@ -4113,21 +4262,24 @@
       <c r="M92" s="3" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="3" t="s">
         <v>84</v>
       </c>
       <c r="C93" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D93" s="6" t="s">
+      <c r="D93" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G93" s="3" t="s">
@@ -4151,15 +4303,18 @@
       <c r="M93" s="3" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="C94" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D94" s="6" t="s">
+      <c r="D94" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E94" s="3" t="s">
@@ -4189,21 +4344,24 @@
       <c r="M94" s="3" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="3" t="s">
         <v>185</v>
       </c>
       <c r="C95" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D95" s="6" t="s">
+      <c r="D95" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E95" s="6" t="s">
+      <c r="E95" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G95" s="3" t="s">
@@ -4227,15 +4385,18 @@
       <c r="M95" s="3" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
         <v>186</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="6" t="s">
+      <c r="D96" s="3" t="s">
         <v>73</v>
       </c>
       <c r="E96" s="3" t="s">
@@ -4264,6 +4425,9 @@
       </c>
       <c r="M96" s="3" t="s">
         <v>203</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
@@ -4273,13 +4437,13 @@
       <c r="C97" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="D97" s="6" t="s">
+      <c r="D97" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="3" t="s">
         <v>55</v>
       </c>
       <c r="G97" s="3" t="s">
@@ -4302,6 +4466,9 @@
       </c>
       <c r="M97" s="3" t="s">
         <v>203</v>
+      </c>
+      <c r="N97" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
